--- a/Solina/Production/Input/GHI_2024-02-23.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-23.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Solina/Production/Input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_1EA18A5EAD04125614061E16F70CAACAB4BD6D2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E10C5C-9503-4FF8-8A39-586A2077CB35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
     <sheet name="Hourly" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -65,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-23T07:16:04</t>
-  </si>
-  <si>
-    <t>2024-02-23T18:02:46</t>
+    <t>2024-02-23T07:13:08</t>
+  </si>
+  <si>
+    <t>2024-02-23T17:56:35</t>
   </si>
   <si>
     <t>hour</t>
@@ -77,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,21 +135,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,10 +247,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,26 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,12 +467,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -515,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3574.27</v>
+        <v>3426.32</v>
       </c>
       <c r="H2">
-        <v>6877.39</v>
+        <v>6752.65</v>
       </c>
       <c r="I2">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="J2">
-        <v>921.55</v>
+        <v>867.67</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>921.55</v>
+        <v>867.67</v>
       </c>
     </row>
   </sheetData>
@@ -539,27 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,12 +559,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -641,12 +600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B3">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -682,12 +641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B4">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -723,12 +682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B5">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -764,12 +723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B6">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -805,12 +764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B7">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -846,12 +805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B8">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -887,12 +846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B9">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -910,30 +869,30 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>19.600000000000001</v>
+        <v>22.52</v>
       </c>
       <c r="I9">
-        <v>123.34</v>
+        <v>139.29</v>
       </c>
       <c r="J9">
-        <v>16.559999999999999</v>
+        <v>18.41</v>
       </c>
       <c r="K9">
-        <v>5.29</v>
+        <v>5.97</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B10">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -951,30 +910,30 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>148.88999999999999</v>
+        <v>151.45</v>
       </c>
       <c r="I10">
-        <v>507.69</v>
+        <v>512.33</v>
       </c>
       <c r="J10">
-        <v>56.83</v>
+        <v>57.33</v>
       </c>
       <c r="K10">
-        <v>39.270000000000003</v>
+        <v>39.05</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.270000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B11">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -992,30 +951,30 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>302.33</v>
+        <v>299.63</v>
       </c>
       <c r="I11">
-        <v>681.23</v>
+        <v>679.22</v>
       </c>
       <c r="J11">
-        <v>78.34</v>
+        <v>78.05</v>
       </c>
       <c r="K11">
-        <v>75.58</v>
+        <v>74.91</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>75.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B12">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1033,30 +992,30 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>431.96</v>
+        <v>423.23</v>
       </c>
       <c r="I12">
-        <v>768.34</v>
+        <v>763.52</v>
       </c>
       <c r="J12">
-        <v>91.24</v>
+        <v>90.47</v>
       </c>
       <c r="K12">
-        <v>107.99</v>
+        <v>105.81</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>107.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B13">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1074,30 +1033,30 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>519.87</v>
+        <v>505.32</v>
       </c>
       <c r="I13">
-        <v>812.93</v>
+        <v>806.22</v>
       </c>
       <c r="J13">
-        <v>98.54</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="K13">
-        <v>129.97</v>
+        <v>126.33</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>129.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>126.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B14">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1115,30 +1074,30 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>556.16</v>
+        <v>536.65</v>
       </c>
       <c r="I14">
-        <v>829.03</v>
+        <v>820.6</v>
       </c>
       <c r="J14">
-        <v>101.3</v>
+        <v>99.84</v>
       </c>
       <c r="K14">
-        <v>139.04</v>
+        <v>134.44</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>139.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B15">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1156,30 +1115,30 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>537.04</v>
+        <v>513.92</v>
       </c>
       <c r="I15">
-        <v>820.75</v>
+        <v>810.33</v>
       </c>
       <c r="J15">
-        <v>99.85</v>
+        <v>98.06</v>
       </c>
       <c r="K15">
-        <v>134.26</v>
+        <v>129.2</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>134.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B16">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1197,30 +1156,30 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>464.49</v>
+        <v>439.5</v>
       </c>
       <c r="I16">
-        <v>785.97</v>
+        <v>772.74</v>
       </c>
       <c r="J16">
-        <v>94.03</v>
+        <v>91.89</v>
       </c>
       <c r="K16">
-        <v>116.12</v>
+        <v>110.27</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>116.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B17">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1238,30 +1197,30 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>346.46</v>
+        <v>321.67</v>
       </c>
       <c r="I17">
-        <v>714.73</v>
+        <v>696.72</v>
       </c>
       <c r="J17">
-        <v>83.07</v>
+        <v>80.47</v>
       </c>
       <c r="K17">
-        <v>86.61</v>
+        <v>81.77</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>86.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B18">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1279,30 +1238,30 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>197.86</v>
+        <v>175.87</v>
       </c>
       <c r="I18">
-        <v>577.14</v>
+        <v>548.72</v>
       </c>
       <c r="J18">
-        <v>64.849999999999994</v>
+        <v>61.47</v>
       </c>
       <c r="K18">
-        <v>62.96</v>
+        <v>48.68</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>62.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B19">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1320,30 +1279,30 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>49.6</v>
+        <v>36.56</v>
       </c>
       <c r="I19">
-        <v>256.24</v>
+        <v>202.96</v>
       </c>
       <c r="J19">
-        <v>31.4</v>
+        <v>24.61</v>
       </c>
       <c r="K19">
-        <v>24.46</v>
+        <v>11.24</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B20">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1379,12 +1338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B21">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1420,12 +1379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B22">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1461,12 +1420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B23">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1502,12 +1461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B24">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1543,12 +1502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25">
-        <v>46.073272000000003</v>
+        <v>47.2229</v>
       </c>
       <c r="B25">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
